--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE047C-4038-4CCB-B521-5F1A0C4CDC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53978C6D-4837-46C6-A750-7F2621F67DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Sr.No</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Do you prefer working with team or independently ❓</t>
+  </si>
+  <si>
+    <t>What are your salary expectations ❓</t>
+  </si>
+  <si>
+    <t>Do you have any questions for us”?</t>
+  </si>
+  <si>
+    <t>Why should we hire you "Mohit" ❓</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,7 +265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -768,18 +776,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="15.42578125" customWidth="1"/>
@@ -829,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -860,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -877,7 +885,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="2"/>
@@ -888,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -904,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="2"/>
@@ -918,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1"/>
@@ -930,9 +938,13 @@
         <v>4</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="O5" t="s">
         <v>8</v>
@@ -944,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1"/>
@@ -956,9 +968,13 @@
         <v>5</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
@@ -967,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
@@ -979,8 +995,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -989,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1"/>
@@ -1000,6 +1021,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1010,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
@@ -1021,6 +1043,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1031,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1"/>
@@ -1043,6 +1066,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1053,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1"/>
@@ -1065,6 +1089,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1075,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1"/>
@@ -1087,6 +1112,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1097,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1"/>
@@ -1109,6 +1135,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1119,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1"/>
@@ -1131,6 +1158,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1141,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1"/>
@@ -1153,6 +1181,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1163,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1"/>
@@ -1175,6 +1204,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1185,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1"/>
@@ -1197,6 +1227,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1219,6 +1250,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1241,6 +1273,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1263,6 +1296,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1285,6 +1319,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1299,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="1">
@@ -1307,6 +1342,7 @@
         <v>21</v>
       </c>
       <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1321,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="1">
@@ -1329,6 +1365,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1344,6 +1381,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1361,6 +1399,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1378,6 +1417,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1395,6 +1435,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1412,6 +1453,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1429,6 +1471,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1446,6 +1489,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1463,6 +1507,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1480,6 +1525,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1497,6 +1543,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1514,6 +1561,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1531,6 +1579,7 @@
         <v>34</v>
       </c>
       <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1548,6 +1597,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1565,6 +1615,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1582,6 +1633,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1599,6 +1651,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1616,6 +1669,7 @@
         <v>39</v>
       </c>
       <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1633,6 +1687,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1650,6 +1705,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1667,6 +1723,7 @@
         <v>42</v>
       </c>
       <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1684,6 +1741,7 @@
         <v>43</v>
       </c>
       <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1694,12 +1752,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,12 +1767,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="2"/>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -1722,12 +1782,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="2"/>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -1736,12 +1797,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="2"/>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -1750,12 +1812,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="2"/>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -1764,12 +1827,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="2"/>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
+      <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -1778,12 +1842,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="2"/>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -1792,8 +1857,9 @@
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="9"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -1802,9 +1868,91 @@
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D23 D25:D1048576">
@@ -1914,8 +2062,11 @@
     <hyperlink ref="K2" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
     <hyperlink ref="K3" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
     <hyperlink ref="K4" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
+    <hyperlink ref="K5" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
+    <hyperlink ref="K6" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
+    <hyperlink ref="K7" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
+  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
 </worksheet>
 </file>
--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53978C6D-4837-46C6-A750-7F2621F67DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10476A2-2271-42D1-B6D5-3E11EFAA049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Sr.No</t>
   </si>
@@ -148,12 +148,36 @@
   </si>
   <si>
     <t>Why should we hire you "Mohit" ❓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we Access variables declare inside try block outside try i.e. catch and finally ❓ </t>
+  </si>
+  <si>
+    <t>Can u explain Call(), apply ()  amd bind() javascript.</t>
+  </si>
+  <si>
+    <t>What is an event loop</t>
+  </si>
+  <si>
+    <t>What is call stack</t>
+  </si>
+  <si>
+    <t>What is npm ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is middlewares ? in nodejs </t>
+  </si>
+  <si>
+    <t>Explain package.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,16 +216,17 @@
       <family val="4"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="22"/>
       <color theme="0"/>
-      <name val="Comic Boys"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
@@ -220,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,12 +268,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,22 +366,117 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFA0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -382,26 +582,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i/>
         <strike val="0"/>
@@ -410,51 +590,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFA0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -776,1297 +911,1051 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="54.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="80" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:16" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <f>ROW(A1)</f>
+    </row>
+    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="1">
+        <f>ROW(B1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <f>ROW(G1)</f>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <f>ROW(H1)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="O2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A53" si="0">ROW(A2)</f>
+    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B53" si="0">ROW(B2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G51" si="1">ROW(G2)</f>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H51" si="1">ROW(H2)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="K3" s="1"/>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="O4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="O5" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="K6" s="1"/>
+      <c r="L6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="K7" s="1"/>
+      <c r="L7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="1"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="E18" s="1"/>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="1"/>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E23" s="1"/>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="G24" s="1">
+      <c r="D24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="G25" s="1">
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="G26" s="1">
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>45388</v>
+      </c>
+      <c r="B27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="G27" s="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="G28" s="1">
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="G29" s="1">
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="G30" s="1">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="G31" s="1">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>45389</v>
+      </c>
+      <c r="B32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
-      <c r="G32" s="1">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="23"/>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="1"/>
-      <c r="G33" s="1">
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-      <c r="G34" s="1">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="G35" s="1">
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="G36" s="1">
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="22"/>
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="G37" s="1">
+      <c r="D37" s="4"/>
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-      <c r="G38" s="1">
+      <c r="D38" s="4"/>
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2"/>
-      <c r="G39" s="1">
+      <c r="D39" s="4"/>
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2"/>
-      <c r="G40" s="1">
+      <c r="D40" s="4"/>
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="G41" s="1">
+      <c r="D41" s="4"/>
+      <c r="H41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2"/>
-      <c r="G42" s="1">
+      <c r="D42" s="4"/>
+      <c r="H42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="G43" s="1">
+      <c r="D43" s="4"/>
+      <c r="H43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-      <c r="G44" s="1">
+      <c r="D44" s="4"/>
+      <c r="H44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="2"/>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="2"/>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="2"/>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="2"/>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="2"/>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="2"/>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="2"/>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="2"/>
+      <c r="K53" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D23 D25:D1048576">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+  <mergeCells count="2">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E1:E23 E25:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23 D25:D33 J2:J53">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+  <conditionalFormatting sqref="E2:E23 K2:K53 E25:E36">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D23 D25:D33 J2:J53 E1 E34:E1048576">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+  <conditionalFormatting sqref="E3:E23 K2:K53 F1 F37:F1048576 E25:E36">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E34:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+  <conditionalFormatting sqref="F1 F37:F1048576">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J53">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="K1:K53">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="K38">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23 D25:D53 J2:J53" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
-      <formula1>$O$4:$O$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 K2:K53 E25:E53" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
+      <formula1>$P$4:$P$5</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Answer" xr:uid="{C0F60A36-7324-4962-B507-874DF753B5DB}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{9D432CF3-C75F-4403-BEA5-44AD8CCBA1FB}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B3014897-BDE6-43F2-9513-5A624E0E4948}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{15CCEB07-CF35-43C6-8796-F2DBD76CF783}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{A4A2AC0D-CE1E-403A-8273-04E58510B163}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{52DB2237-AE21-4E5A-BD46-F8CC613C8AB5}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{EC896D67-3A47-4673-AEEA-DB2786CA86DE}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{CB7C37C0-3582-4ECD-8FCF-926F1BCFDD15}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{DA130AF9-9CA3-4A5E-A9DC-CDFAEDBE9E37}"/>
-    <hyperlink ref="E8" r:id="rId10" xr:uid="{7DD68F8D-8286-435C-AE87-4A42CE2F30CC}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{176B2807-FB4D-4631-AB30-30C3DB823CF6}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{508A12C5-666A-4B57-B5BD-D0064E3CB75B}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{AC8A9F92-0DF5-468D-9892-44BC6B959D3C}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{1EAD524F-81A7-4D0E-82AC-B3A251000AFF}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{DB8359FA-D50C-4421-A2F1-D755E751B6DC}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{1A01D480-9999-4836-A532-05A91B8942AB}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{20A026A2-E6C4-4C4C-B215-1CFAC3879FB4}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{8B1B1A13-9E55-49BA-8F9D-E66B39089263}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{90585AFD-7BD6-4EA1-ADEB-54ECB9554B9A}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{344024F5-C7DC-448A-94F7-9D3C694AD190}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{7131708B-B8F2-4909-A4CC-E69EC5CEBA07}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{F2E61C34-C823-4CD4-8890-59C9671EA5DA}"/>
-    <hyperlink ref="K2" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
-    <hyperlink ref="K3" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
-    <hyperlink ref="K4" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
-    <hyperlink ref="K5" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
-    <hyperlink ref="K6" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
-    <hyperlink ref="K7" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
+    <hyperlink ref="F2" r:id="rId1" display="Answer" xr:uid="{C0F60A36-7324-4962-B507-874DF753B5DB}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{9D432CF3-C75F-4403-BEA5-44AD8CCBA1FB}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B3014897-BDE6-43F2-9513-5A624E0E4948}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{15CCEB07-CF35-43C6-8796-F2DBD76CF783}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{A4A2AC0D-CE1E-403A-8273-04E58510B163}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{52DB2237-AE21-4E5A-BD46-F8CC613C8AB5}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{EC896D67-3A47-4673-AEEA-DB2786CA86DE}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{CB7C37C0-3582-4ECD-8FCF-926F1BCFDD15}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{DA130AF9-9CA3-4A5E-A9DC-CDFAEDBE9E37}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{7DD68F8D-8286-435C-AE87-4A42CE2F30CC}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{176B2807-FB4D-4631-AB30-30C3DB823CF6}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{508A12C5-666A-4B57-B5BD-D0064E3CB75B}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{AC8A9F92-0DF5-468D-9892-44BC6B959D3C}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{1EAD524F-81A7-4D0E-82AC-B3A251000AFF}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{DB8359FA-D50C-4421-A2F1-D755E751B6DC}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{1A01D480-9999-4836-A532-05A91B8942AB}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{20A026A2-E6C4-4C4C-B215-1CFAC3879FB4}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{8B1B1A13-9E55-49BA-8F9D-E66B39089263}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{90585AFD-7BD6-4EA1-ADEB-54ECB9554B9A}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{344024F5-C7DC-448A-94F7-9D3C694AD190}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{7131708B-B8F2-4909-A4CC-E69EC5CEBA07}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{F2E61C34-C823-4CD4-8890-59C9671EA5DA}"/>
+    <hyperlink ref="L2" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
+    <hyperlink ref="L3" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
+    <hyperlink ref="L4" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
+    <hyperlink ref="L5" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
+    <hyperlink ref="L6" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
+    <hyperlink ref="L7" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
+    <hyperlink ref="F24" r:id="rId29" xr:uid="{747EE7A7-D232-404F-9A58-B3C4499A0472}"/>
+    <hyperlink ref="F25" r:id="rId30" xr:uid="{D36BE8D9-43EC-4069-BA72-7D3DC09EFF93}"/>
+    <hyperlink ref="F28" r:id="rId31" xr:uid="{91D7211F-87C4-4E69-BCE2-D9A3308CE6F0}"/>
+    <hyperlink ref="F29" r:id="rId32" xr:uid="{68ABC244-1762-4C6D-99E5-06E2A48EBA9F}"/>
+    <hyperlink ref="F30" r:id="rId33" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
+    <hyperlink ref="F31" r:id="rId34" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
+    <hyperlink ref="F27" r:id="rId35" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
+  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId36"/>
 </worksheet>
 </file>
--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10476A2-2271-42D1-B6D5-3E11EFAA049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B3D16-3277-4F11-9256-F37AC957EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Sr.No</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Explain package.json</t>
+  </si>
+  <si>
+    <t>Explain the types of streams in Node.js ?</t>
+  </si>
+  <si>
+    <t>What is the difference between setTimeout() and setImmediate() and setInterval() ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is function declaration in javascript ?</t>
+  </si>
+  <si>
+    <t>What is function expression in javascript?</t>
+  </si>
+  <si>
+    <t>What is lexical scope in javascript ?</t>
   </si>
 </sst>
 </file>
@@ -176,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -353,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,28 +385,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +405,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -913,9 +921,9 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -937,34 +945,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1462,19 +1470,19 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="18">
         <v>45388</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="1">
@@ -1484,17 +1492,16 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13">
+      <c r="A28" s="19"/>
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="1">
@@ -1504,17 +1511,16 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1">
@@ -1524,17 +1530,16 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1">
@@ -1544,17 +1549,17 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17">
+      <c r="A31" s="20"/>
+      <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1">
@@ -1564,17 +1569,21 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="18">
         <v>45389</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="23"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1582,15 +1591,18 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13">
+      <c r="A33" s="19"/>
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1598,15 +1610,14 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13">
+      <c r="A34" s="19"/>
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="15"/>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1614,15 +1625,14 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="21"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="15"/>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1630,15 +1640,15 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17">
+      <c r="A36" s="20"/>
+      <c r="B36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="22"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="16"/>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1646,11 +1656,21 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+      <c r="A37" s="18">
+        <v>45390</v>
+      </c>
+      <c r="B37" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1658,11 +1678,18 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1670,11 +1697,18 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1682,11 +1716,14 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="15"/>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1694,11 +1731,15 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="16"/>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1833,9 +1874,10 @@
       <c r="K53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E23 E25:E1048576">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
@@ -1856,12 +1898,12 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23 K2:K53 E25:E36">
+  <conditionalFormatting sqref="E2:E23 K2:K53 E25:E41">
     <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E23 K2:K53 F1 F37:F1048576 E25:E36">
+  <conditionalFormatting sqref="E3:E23 K2:K53 F1 F42:F1048576 E25:E41">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -1871,7 +1913,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F37:F1048576">
+  <conditionalFormatting sqref="F1 F42:F1048576">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1954,8 +1996,13 @@
     <hyperlink ref="F30" r:id="rId33" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
     <hyperlink ref="F31" r:id="rId34" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
     <hyperlink ref="F27" r:id="rId35" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
+    <hyperlink ref="F32" r:id="rId36" xr:uid="{B712327E-863D-4BA4-BC88-5919AE285595}"/>
+    <hyperlink ref="F33" r:id="rId37" xr:uid="{45DB6987-B731-4B67-AE24-6F1343D0CA02}"/>
+    <hyperlink ref="F37" r:id="rId38" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
+    <hyperlink ref="F38" r:id="rId39" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
+    <hyperlink ref="F39" r:id="rId40" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId36"/>
+  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
 </worksheet>
 </file>
--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B3D16-3277-4F11-9256-F37AC957EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F47D8-3A2D-4C84-9E73-F77E204EE5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Sr.No</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>What is lexical scope in javascript ?</t>
+  </si>
+  <si>
+    <t>Whats your salary expectation?</t>
+  </si>
+  <si>
+    <t>Do you have any questions for us? (Technical Round)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,77 +420,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFA0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -520,6 +462,56 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -568,36 +560,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FFFA0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,9 +883,9 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1111,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -1167,7 +1134,6 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -1751,7 +1717,13 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1879,84 +1851,70 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E23 E25:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+  <conditionalFormatting sqref="E1:E23 K1:K8 K10:K53 E25:E1048576">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23 K2:K53 E25:E41">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+  <conditionalFormatting sqref="E2:E23 K2:K8 K10:K53 E25:E42">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E23 K2:K53 F1 F42:F1048576 E25:E41">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+  <conditionalFormatting sqref="E3:E23 F1 F43:F1048576 K2:K8 K10:K53 E25:E42">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F42:F1048576">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+  <conditionalFormatting sqref="F1 F43:F1048576">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K53">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 K2:K53 E25:E53" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 E25:E53 K2:K8 K10:K53" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
       <formula1>$P$4:$P$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2001,8 +1959,10 @@
     <hyperlink ref="F37" r:id="rId38" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
     <hyperlink ref="F38" r:id="rId39" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
     <hyperlink ref="F39" r:id="rId40" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
+    <hyperlink ref="L8" r:id="rId41" xr:uid="{F1B81C13-4465-4D19-B346-B11E9288ECDD}"/>
+    <hyperlink ref="F42" r:id="rId42" xr:uid="{F7643D98-11B7-408E-844A-5E2AF66D65F1}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
+  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
 </worksheet>
 </file>
--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F47D8-3A2D-4C84-9E73-F77E204EE5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8377447B-BAEC-4B15-9046-4157045D1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
+    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Sr.No</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Do you have any questions for us? (Technical Round)</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Node.JS</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +260,15 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +433,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,13 +443,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -465,6 +490,157 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFA0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFA0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -515,51 +691,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFA0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -881,11 +1012,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -901,132 +1032,167 @@
     <col min="10" max="10" width="54.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="59.85546875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="AA1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="1">
+      <c r="N2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
         <f>ROW(B1)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
         <f>ROW(H1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B53" si="0">ROW(B2)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H51" si="1">ROW(H2)</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="N3" s="1">
+        <f>ROW(N1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="6"/>
+      <c r="AA3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B4:B54" si="0">ROW(B2)</f>
+        <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
+        <f t="shared" ref="H4:H52" si="1">ROW(H2)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N52" si="2">ROW(N2)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="6"/>
+      <c r="AA4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
@@ -1034,26 +1200,29 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
@@ -1061,23 +1230,29 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
@@ -1085,46 +1260,59 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:27" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="6" t="s">
@@ -1132,16 +1320,28 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="6" t="s">
@@ -1149,17 +1349,20 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="6" t="s">
@@ -1167,17 +1370,22 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
@@ -1185,17 +1393,22 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="6" t="s">
@@ -1203,17 +1416,22 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="6" t="s">
@@ -1221,17 +1439,22 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="6" t="s">
@@ -1239,17 +1462,22 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="6" t="s">
@@ -1257,17 +1485,22 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
@@ -1275,17 +1508,22 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="6" t="s">
@@ -1293,17 +1531,22 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="6" t="s">
@@ -1311,17 +1554,22 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="6" t="s">
@@ -1329,17 +1577,22 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="6" t="s">
@@ -1347,17 +1600,22 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="6" t="s">
@@ -1365,17 +1623,22 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="6" t="s">
@@ -1383,107 +1646,136 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+      <c r="K25" s="1"/>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="E26" s="1"/>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
+      <c r="K26" s="1"/>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="H26" s="1">
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="K27" s="1"/>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>45388</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="E28" s="8"/>
+      <c r="F28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="1">
+      <c r="K28" s="1"/>
+      <c r="N28" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
@@ -1491,18 +1783,23 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
@@ -1510,166 +1807,211 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="N30" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="11">
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="N31" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="E32" s="11"/>
+      <c r="F32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="K32" s="1"/>
+      <c r="N32" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>45389</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="E33" s="8"/>
+      <c r="F33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="1">
+      <c r="K33" s="1"/>
+      <c r="N33" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="E34" s="1"/>
+      <c r="F34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="1">
+      <c r="K34" s="1"/>
+      <c r="N34" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="15"/>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1"/>
       <c r="F35" s="15"/>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="N35" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="11">
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="15"/>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="N36" s="1">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="16"/>
-      <c r="H36" s="1">
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="K37" s="1"/>
+      <c r="N37" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
         <v>45390</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="E38" s="8"/>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="1">
+      <c r="K38" s="1"/>
+      <c r="N38" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="15" t="s">
@@ -1677,290 +2019,433 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="N39" s="1">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="1">
+      <c r="D40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="N40" s="1">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="15"/>
-      <c r="H40" s="1">
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="15"/>
+      <c r="H41" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="11">
+      <c r="K41" s="1"/>
+      <c r="N41" s="1">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="16"/>
-      <c r="H41" s="1">
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="16"/>
+      <c r="H42" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
+      <c r="K42" s="1"/>
+      <c r="N42" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="E43" s="1"/>
+      <c r="F43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
+      <c r="K43" s="1"/>
+      <c r="N43" s="1">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="H43" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
       </c>
       <c r="D44" s="4"/>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="N44" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
+      <c r="D45" s="4"/>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="N45" s="1">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
+      <c r="K46" s="1"/>
+      <c r="N46" s="1">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
+      <c r="K47" s="1"/>
+      <c r="N47" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
+      <c r="K48" s="1"/>
+      <c r="N48" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
+      <c r="K49" s="1"/>
+      <c r="N49" s="1">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
+      <c r="K50" s="1"/>
+      <c r="N50" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
+      <c r="K51" s="1"/>
+      <c r="N51" s="1">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
+      <c r="K52" s="1"/>
+      <c r="N52" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
+  <mergeCells count="6">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E23 K1:K8 K10:K53 E25:E1048576">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E24 K3:K9 K11:K54 E26:E43">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E24 K3:K9 K11:K54 E26:E43 F2 F44:F1048576">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2 F44:F1048576">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23 K2:K8 K10:K53 E25:E42">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+  <conditionalFormatting sqref="K2:K9 E2:E24 K11:K54 E26:E1048576">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9 K11:K54 E2:E24 E26:E1048576">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E23 F1 F43:F1048576 K2:K8 K10:K53 E25:E42">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+  <conditionalFormatting sqref="Q3:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+  <conditionalFormatting sqref="Q2:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F43:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
-      <formula>"No"</formula>
+  <conditionalFormatting sqref="Q2:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="Q3">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="Q39">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 E25:E53 K2:K8 K10:K53" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
-      <formula1>$P$4:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24 E26:E54 K3:K9 K11:K54 Q3:Q9 Q11:Q52" xr:uid="{29A631E9-CD2C-469F-9851-8FF49CF51792}">
+      <formula1>$AA$3:$AA$4</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="Answer" xr:uid="{C0F60A36-7324-4962-B507-874DF753B5DB}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{9D432CF3-C75F-4403-BEA5-44AD8CCBA1FB}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{B3014897-BDE6-43F2-9513-5A624E0E4948}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{15CCEB07-CF35-43C6-8796-F2DBD76CF783}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{A4A2AC0D-CE1E-403A-8273-04E58510B163}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{52DB2237-AE21-4E5A-BD46-F8CC613C8AB5}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{EC896D67-3A47-4673-AEEA-DB2786CA86DE}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{CB7C37C0-3582-4ECD-8FCF-926F1BCFDD15}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{DA130AF9-9CA3-4A5E-A9DC-CDFAEDBE9E37}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{7DD68F8D-8286-435C-AE87-4A42CE2F30CC}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{176B2807-FB4D-4631-AB30-30C3DB823CF6}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{508A12C5-666A-4B57-B5BD-D0064E3CB75B}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{AC8A9F92-0DF5-468D-9892-44BC6B959D3C}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{1EAD524F-81A7-4D0E-82AC-B3A251000AFF}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{DB8359FA-D50C-4421-A2F1-D755E751B6DC}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{1A01D480-9999-4836-A532-05A91B8942AB}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{20A026A2-E6C4-4C4C-B215-1CFAC3879FB4}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{8B1B1A13-9E55-49BA-8F9D-E66B39089263}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{90585AFD-7BD6-4EA1-ADEB-54ECB9554B9A}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{344024F5-C7DC-448A-94F7-9D3C694AD190}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{7131708B-B8F2-4909-A4CC-E69EC5CEBA07}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{F2E61C34-C823-4CD4-8890-59C9671EA5DA}"/>
-    <hyperlink ref="L2" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
-    <hyperlink ref="L3" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
-    <hyperlink ref="L4" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
-    <hyperlink ref="L5" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
-    <hyperlink ref="L6" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
-    <hyperlink ref="L7" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
-    <hyperlink ref="F24" r:id="rId29" xr:uid="{747EE7A7-D232-404F-9A58-B3C4499A0472}"/>
-    <hyperlink ref="F25" r:id="rId30" xr:uid="{D36BE8D9-43EC-4069-BA72-7D3DC09EFF93}"/>
-    <hyperlink ref="F28" r:id="rId31" xr:uid="{91D7211F-87C4-4E69-BCE2-D9A3308CE6F0}"/>
-    <hyperlink ref="F29" r:id="rId32" xr:uid="{68ABC244-1762-4C6D-99E5-06E2A48EBA9F}"/>
-    <hyperlink ref="F30" r:id="rId33" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
-    <hyperlink ref="F31" r:id="rId34" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
-    <hyperlink ref="F27" r:id="rId35" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
-    <hyperlink ref="F32" r:id="rId36" xr:uid="{B712327E-863D-4BA4-BC88-5919AE285595}"/>
-    <hyperlink ref="F33" r:id="rId37" xr:uid="{45DB6987-B731-4B67-AE24-6F1343D0CA02}"/>
-    <hyperlink ref="F37" r:id="rId38" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
-    <hyperlink ref="F38" r:id="rId39" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
-    <hyperlink ref="F39" r:id="rId40" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
-    <hyperlink ref="L8" r:id="rId41" xr:uid="{F1B81C13-4465-4D19-B346-B11E9288ECDD}"/>
-    <hyperlink ref="F42" r:id="rId42" xr:uid="{F7643D98-11B7-408E-844A-5E2AF66D65F1}"/>
+    <hyperlink ref="F3" r:id="rId1" display="Answer" xr:uid="{C0F60A36-7324-4962-B507-874DF753B5DB}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{9D432CF3-C75F-4403-BEA5-44AD8CCBA1FB}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{B3014897-BDE6-43F2-9513-5A624E0E4948}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{15CCEB07-CF35-43C6-8796-F2DBD76CF783}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{A4A2AC0D-CE1E-403A-8273-04E58510B163}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{52DB2237-AE21-4E5A-BD46-F8CC613C8AB5}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{EC896D67-3A47-4673-AEEA-DB2786CA86DE}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{CB7C37C0-3582-4ECD-8FCF-926F1BCFDD15}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{DA130AF9-9CA3-4A5E-A9DC-CDFAEDBE9E37}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{7DD68F8D-8286-435C-AE87-4A42CE2F30CC}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{176B2807-FB4D-4631-AB30-30C3DB823CF6}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{508A12C5-666A-4B57-B5BD-D0064E3CB75B}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{AC8A9F92-0DF5-468D-9892-44BC6B959D3C}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{1EAD524F-81A7-4D0E-82AC-B3A251000AFF}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{DB8359FA-D50C-4421-A2F1-D755E751B6DC}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{1A01D480-9999-4836-A532-05A91B8942AB}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{20A026A2-E6C4-4C4C-B215-1CFAC3879FB4}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{8B1B1A13-9E55-49BA-8F9D-E66B39089263}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{90585AFD-7BD6-4EA1-ADEB-54ECB9554B9A}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{344024F5-C7DC-448A-94F7-9D3C694AD190}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{7131708B-B8F2-4909-A4CC-E69EC5CEBA07}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{F2E61C34-C823-4CD4-8890-59C9671EA5DA}"/>
+    <hyperlink ref="L3" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
+    <hyperlink ref="L4" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
+    <hyperlink ref="L5" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
+    <hyperlink ref="L6" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
+    <hyperlink ref="L7" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
+    <hyperlink ref="L8" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
+    <hyperlink ref="F25" r:id="rId29" xr:uid="{747EE7A7-D232-404F-9A58-B3C4499A0472}"/>
+    <hyperlink ref="F26" r:id="rId30" xr:uid="{D36BE8D9-43EC-4069-BA72-7D3DC09EFF93}"/>
+    <hyperlink ref="F29" r:id="rId31" xr:uid="{91D7211F-87C4-4E69-BCE2-D9A3308CE6F0}"/>
+    <hyperlink ref="F30" r:id="rId32" xr:uid="{68ABC244-1762-4C6D-99E5-06E2A48EBA9F}"/>
+    <hyperlink ref="F31" r:id="rId33" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
+    <hyperlink ref="F32" r:id="rId34" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
+    <hyperlink ref="F28" r:id="rId35" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
+    <hyperlink ref="F33" r:id="rId36" xr:uid="{B712327E-863D-4BA4-BC88-5919AE285595}"/>
+    <hyperlink ref="F34" r:id="rId37" xr:uid="{45DB6987-B731-4B67-AE24-6F1343D0CA02}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
+    <hyperlink ref="F39" r:id="rId39" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
+    <hyperlink ref="F40" r:id="rId40" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
+    <hyperlink ref="L9" r:id="rId41" xr:uid="{F1B81C13-4465-4D19-B346-B11E9288ECDD}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{F7643D98-11B7-408E-844A-5E2AF66D65F1}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>

--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8377447B-BAEC-4B15-9046-4157045D1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824D551-544C-4E1F-AEEF-F3AD4B18F18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Sr.No</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Do you prefer working with team or independently ❓</t>
   </si>
   <si>
-    <t>What are your salary expectations ❓</t>
-  </si>
-  <si>
     <t>Do you have any questions for us”?</t>
   </si>
   <si>
@@ -199,6 +196,24 @@
   </si>
   <si>
     <t>Node.JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you want about our company? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did you apply for this job? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you hear about this position? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about the challenge or conflict you have faced at your work. And how you deal with it? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why you are looking to leave your company? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are your professional strength? </t>
   </si>
 </sst>
 </file>
@@ -433,7 +448,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +460,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,19 +502,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -532,29 +557,19 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFA0000"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFA0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1014,9 +1029,9 @@
   </sheetPr>
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1042,27 +1057,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
       <c r="AA1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1292,11 +1307,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="22" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="1">
@@ -1322,18 +1337,15 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>9</v>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="R9" s="18"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -1351,6 +1363,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1372,6 +1387,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
@@ -1395,6 +1413,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
@@ -1418,6 +1439,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
@@ -1441,6 +1465,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
@@ -1684,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>9</v>
@@ -1706,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="6" t="s">
@@ -1751,7 +1778,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="17" t="s">
@@ -1775,7 +1802,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="15" t="s">
@@ -1799,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="15" t="s">
@@ -1823,7 +1850,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="15" t="s">
@@ -1848,7 +1875,7 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="16" t="s">
@@ -1875,7 +1902,7 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="16" t="s">
@@ -1899,7 +1926,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="16" t="s">
@@ -1987,7 +2014,7 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="15" t="s">
@@ -2011,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="15" t="s">
@@ -2035,7 +2062,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="15" t="s">
@@ -2099,10 +2126,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="1">
@@ -2349,34 +2376,30 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q9 Q11:Q52">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="Q2:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q9 Q11:Q52">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q9 Q11:Q52">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q9 Q11:Q52">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q9 Q11:Q52">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2429,25 +2452,24 @@
     <hyperlink ref="L3" r:id="rId23" xr:uid="{2D1FD85E-3E73-4FAA-8388-CB4820180203}"/>
     <hyperlink ref="L4" r:id="rId24" xr:uid="{67EFCD5B-2304-40A0-82D0-B65054CFC62A}"/>
     <hyperlink ref="L5" r:id="rId25" xr:uid="{060A4CFA-5464-4D91-A08F-31F06D0B5629}"/>
-    <hyperlink ref="L6" r:id="rId26" xr:uid="{E4291A40-FC2A-42C1-A462-F98CD80ED33B}"/>
-    <hyperlink ref="L7" r:id="rId27" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
-    <hyperlink ref="L8" r:id="rId28" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
-    <hyperlink ref="F25" r:id="rId29" xr:uid="{747EE7A7-D232-404F-9A58-B3C4499A0472}"/>
-    <hyperlink ref="F26" r:id="rId30" xr:uid="{D36BE8D9-43EC-4069-BA72-7D3DC09EFF93}"/>
-    <hyperlink ref="F29" r:id="rId31" xr:uid="{91D7211F-87C4-4E69-BCE2-D9A3308CE6F0}"/>
-    <hyperlink ref="F30" r:id="rId32" xr:uid="{68ABC244-1762-4C6D-99E5-06E2A48EBA9F}"/>
-    <hyperlink ref="F31" r:id="rId33" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
-    <hyperlink ref="F32" r:id="rId34" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
-    <hyperlink ref="F28" r:id="rId35" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
-    <hyperlink ref="F33" r:id="rId36" xr:uid="{B712327E-863D-4BA4-BC88-5919AE285595}"/>
-    <hyperlink ref="F34" r:id="rId37" xr:uid="{45DB6987-B731-4B67-AE24-6F1343D0CA02}"/>
-    <hyperlink ref="F38" r:id="rId38" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
-    <hyperlink ref="F39" r:id="rId39" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
-    <hyperlink ref="F40" r:id="rId40" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
-    <hyperlink ref="L9" r:id="rId41" xr:uid="{F1B81C13-4465-4D19-B346-B11E9288ECDD}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{F7643D98-11B7-408E-844A-5E2AF66D65F1}"/>
+    <hyperlink ref="L6" r:id="rId26" xr:uid="{1E58CE11-3A9B-410B-87A8-5952B469AD4D}"/>
+    <hyperlink ref="L7" r:id="rId27" xr:uid="{8DF45624-E8F2-4CF1-96D7-2699A98F1CDD}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{747EE7A7-D232-404F-9A58-B3C4499A0472}"/>
+    <hyperlink ref="F26" r:id="rId29" xr:uid="{D36BE8D9-43EC-4069-BA72-7D3DC09EFF93}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{91D7211F-87C4-4E69-BCE2-D9A3308CE6F0}"/>
+    <hyperlink ref="F30" r:id="rId31" xr:uid="{68ABC244-1762-4C6D-99E5-06E2A48EBA9F}"/>
+    <hyperlink ref="F31" r:id="rId32" xr:uid="{699E1282-C026-4E44-9445-8319F198153B}"/>
+    <hyperlink ref="F32" r:id="rId33" xr:uid="{9191D6F2-A990-4EE1-9C3E-206DE9D015EC}"/>
+    <hyperlink ref="F28" r:id="rId34" xr:uid="{19E66BE0-5A4D-47DA-B2F2-A40D8182B8B2}"/>
+    <hyperlink ref="F33" r:id="rId35" xr:uid="{B712327E-863D-4BA4-BC88-5919AE285595}"/>
+    <hyperlink ref="F34" r:id="rId36" xr:uid="{45DB6987-B731-4B67-AE24-6F1343D0CA02}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{70768C8F-2A5C-496B-9A59-B89AA2AEBDD9}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{53C25F06-72DC-416C-9232-818246D0048A}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{4D65F59B-28EE-4828-9CE3-314966FCD919}"/>
+    <hyperlink ref="L8" r:id="rId40" xr:uid="{F1B81C13-4465-4D19-B346-B11E9288ECDD}"/>
+    <hyperlink ref="F43" r:id="rId41" xr:uid="{F7643D98-11B7-408E-844A-5E2AF66D65F1}"/>
   </hyperlinks>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="15" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId42"/>
 </worksheet>
 </file>
--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.pardhi\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824D551-544C-4E1F-AEEF-F3AD4B18F18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1839E22D-18C1-407C-B3D5-1EE3EA743406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="38640" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,6 +448,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,7 +461,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,9 +728,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,7 +768,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -874,7 +874,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,7 +1016,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1057,27 +1057,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="AA1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="1">
@@ -1769,7 +1769,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="20">
         <v>45388</v>
       </c>
       <c r="B28" s="1">
@@ -1796,7 +1796,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1820,7 +1820,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1844,7 +1844,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1868,7 +1868,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1893,7 +1893,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="20">
         <v>45389</v>
       </c>
       <c r="B33" s="1">
@@ -1920,7 +1920,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1944,7 +1944,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1964,7 +1964,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1984,7 +1984,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2005,7 +2005,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="20">
         <v>45390</v>
       </c>
       <c r="B38" s="1">
@@ -2032,7 +2032,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2056,7 +2056,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2080,7 +2080,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2100,7 +2100,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>

--- a/javascript-questions/Questions.xlsx
+++ b/javascript-questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\JavaScript-and-Node-Problems\javascript-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE904BA4-63A9-4B67-B7DD-87EF4903E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDA2EF-FF75-4BDE-9943-AB102BF9CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BCD068E-405C-43F5-86F0-8E18060ACB28}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
   <si>
     <t>Sr.No</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Direct message to recruiter</t>
+  </si>
+  <si>
+    <t>Explain Implicit Type Coercion in javascript?</t>
+  </si>
+  <si>
+    <t>What are the potential pitfalls of implicit type coercion in JavaScript?</t>
   </si>
 </sst>
 </file>
@@ -772,8 +778,8 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1674,8 +1680,12 @@
         <v>49</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="29.25" x14ac:dyDescent="0.5">
@@ -1685,8 +1695,12 @@
         <v>50</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" x14ac:dyDescent="0.5">
@@ -2315,9 +2329,11 @@
     <hyperlink ref="E42" r:id="rId40" xr:uid="{AD32A250-6DFF-48C3-AEED-B2FDD6C638F7}"/>
     <hyperlink ref="E43" r:id="rId41" xr:uid="{EF2D3FE9-63A1-4B58-AFDF-29FAC8B36BBF}"/>
     <hyperlink ref="E50" r:id="rId42" xr:uid="{95A6EE4C-C75B-4823-96B2-CC7C580A4F7F}"/>
+    <hyperlink ref="E51" r:id="rId43" xr:uid="{763F2625-2034-4772-99DC-95A0F89FA468}"/>
+    <hyperlink ref="E52" r:id="rId44" xr:uid="{333BC6B4-DDA4-4A3D-88E5-D38FDD4F4075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="15" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
+  <pageSetup paperSize="9" scale="15" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
 
